--- a/Cronogramas/Cronograma2_MAF105.xlsx
+++ b/Cronogramas/Cronograma2_MAF105.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\GitHub\MAF105\maf105.github.io\Cronogramas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\GitHub\MAF105\maf105.github.io\Cronogramas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
+    <sheet name="Plan4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr dataExtractLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="249">
   <si>
     <t>Data</t>
   </si>
@@ -732,6 +732,42 @@
   </si>
   <si>
     <t>=K39</t>
+  </si>
+  <si>
+    <t>Aplicações</t>
+  </si>
+  <si>
+    <t>Aula prática: Excel, Latex, R - Aula Gravada</t>
+  </si>
+  <si>
+    <t>Noções de regressão linear simples - Aula Gravada</t>
+  </si>
+  <si>
+    <t>Estimação de parâmetros - Aula Gravada</t>
+  </si>
+  <si>
+    <t>Correção da primeira prova - Aula Gravada</t>
+  </si>
+  <si>
+    <t>Aula Prática (Distribuição Normal no R e no Geogebra)- Aula Gravada</t>
+  </si>
+  <si>
+    <t>Recesso Escolar</t>
+  </si>
+  <si>
+    <t>Variáveis aleatórias discretas: funções de probabilidade</t>
+  </si>
+  <si>
+    <t>Variáveis aleatórias discretas e contínuas, Funções de variáveis aleatórias, Variáveis aleatórias contínuas: funções densidade de probabilidade</t>
+  </si>
+  <si>
+    <t>Correção da Segunda prova - Aula Gravada</t>
+  </si>
+  <si>
+    <t>testes de hipóteses - Aula Gravada</t>
+  </si>
+  <si>
+    <t>Entrega do Relatório Final (Trabalho)</t>
   </si>
 </sst>
 </file>
@@ -776,7 +812,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -804,11 +840,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -888,6 +933,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1170,7 +1219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1875,10 +1924,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U259"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:W260"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9091,4 +9143,5935 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U255"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="I211" sqref="I211"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="41.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="15" t="str">
+        <f>U3</f>
+        <v>Data</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="15" t="str">
+        <f t="shared" ref="B3:B6" si="0">U4</f>
+        <v>Dias da Semana</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="S3" t="str">
+        <f>O3&amp;P3&amp;Q3</f>
+        <v>=G3</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" t="str">
+        <f>G3</f>
+        <v>Data</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Conteúdo previsto</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="3">
+        <v>44684</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" ref="S4:S7" si="1">O4&amp;P4&amp;Q4</f>
+        <v>=H3</v>
+      </c>
+      <c r="T4" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" t="str">
+        <f>H3</f>
+        <v>Dias da Semana</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>Aula</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="3">
+        <v>44686</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="1"/>
+        <v>=I3</v>
+      </c>
+      <c r="T5" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="U5" t="str">
+        <f>I3</f>
+        <v>Conteúdo previsto</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>CH</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="3">
+        <f>G4+7</f>
+        <v>44691</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="4">
+        <v>3</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="1"/>
+        <v>=J3</v>
+      </c>
+      <c r="T6" t="s">
+        <v>54</v>
+      </c>
+      <c r="U6" t="str">
+        <f>J3</f>
+        <v>Aula</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="G7" s="3">
+        <f>G5+7</f>
+        <v>44693</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="4">
+        <v>4</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="1"/>
+        <v>=K3</v>
+      </c>
+      <c r="T7" t="s">
+        <v>56</v>
+      </c>
+      <c r="U7" t="str">
+        <f>K3</f>
+        <v>CH</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="G8" s="3">
+        <f>G6+7</f>
+        <v>44698</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="J8" s="4">
+        <v>5</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="16">
+        <f>U10</f>
+        <v>44684</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="3">
+        <f>G7+7</f>
+        <v>44700</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="J9" s="4">
+        <v>6</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="16" t="str">
+        <f t="shared" ref="B10:B13" si="2">U11</f>
+        <v>Terça</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" ref="G10:G32" si="3">G8+7</f>
+        <v>44705</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="4">
+        <v>7</v>
+      </c>
+      <c r="K10" s="4">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10">
+        <f>Q3+1</f>
+        <v>4</v>
+      </c>
+      <c r="S10" t="str">
+        <f>O10&amp;P10&amp;Q10</f>
+        <v>=G4</v>
+      </c>
+      <c r="T10" t="s">
+        <v>57</v>
+      </c>
+      <c r="U10" s="25">
+        <f>G4</f>
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>Apresentação do curso, critérios de avaliação, cronograma e alguns conceitos fundamentais.</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="3"/>
+        <v>44707</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="4">
+        <v>8</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2</v>
+      </c>
+      <c r="O11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ref="Q11:Q14" si="4">Q4+1</f>
+        <v>4</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" ref="S11:S14" si="5">O11&amp;P11&amp;Q11</f>
+        <v>=H4</v>
+      </c>
+      <c r="T11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U11" t="str">
+        <f>H4</f>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="3"/>
+        <v>44712</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="J12" s="4">
+        <v>9</v>
+      </c>
+      <c r="K12" s="4">
+        <v>2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="5"/>
+        <v>=I4</v>
+      </c>
+      <c r="T12" t="s">
+        <v>59</v>
+      </c>
+      <c r="U12" t="str">
+        <f>I4</f>
+        <v>Apresentação do curso, critérios de avaliação, cronograma e alguns conceitos fundamentais.</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="3"/>
+        <v>44714</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="J13" s="4">
+        <v>10</v>
+      </c>
+      <c r="K13" s="4">
+        <v>2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="5"/>
+        <v>=J4</v>
+      </c>
+      <c r="T13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U13">
+        <f>J4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="G14" s="3">
+        <f t="shared" si="3"/>
+        <v>44719</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="J14" s="4">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4">
+        <v>2</v>
+      </c>
+      <c r="O14" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="5"/>
+        <v>=K4</v>
+      </c>
+      <c r="T14" t="s">
+        <v>61</v>
+      </c>
+      <c r="U14">
+        <f>K4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="G15" s="3">
+        <f t="shared" si="3"/>
+        <v>44721</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="4">
+        <v>12</v>
+      </c>
+      <c r="K15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="16">
+        <f>U17</f>
+        <v>44686</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="3"/>
+        <v>44726</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="J16" s="4">
+        <v>13</v>
+      </c>
+      <c r="K16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="16" t="str">
+        <f t="shared" ref="B17:B20" si="6">U18</f>
+        <v>Quinta</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="3"/>
+        <v>44728</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="J17" s="4">
+        <v>14</v>
+      </c>
+      <c r="K17" s="4">
+        <v>2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q17">
+        <f>Q10+1</f>
+        <v>5</v>
+      </c>
+      <c r="S17" t="str">
+        <f>O17&amp;P17&amp;Q17</f>
+        <v>=G5</v>
+      </c>
+      <c r="T17" t="s">
+        <v>62</v>
+      </c>
+      <c r="U17" s="25">
+        <f>G5</f>
+        <v>44686</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="16" t="str">
+        <f t="shared" si="6"/>
+        <v>Apresentação gráfica e tabular, Medidas de posição e de dispersão.</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="3"/>
+        <v>44733</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="J18" s="4">
+        <v>15</v>
+      </c>
+      <c r="K18" s="4">
+        <v>2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ref="Q18:Q21" si="7">Q11+1</f>
+        <v>5</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" ref="S18:S21" si="8">O18&amp;P18&amp;Q18</f>
+        <v>=H5</v>
+      </c>
+      <c r="T18" t="s">
+        <v>63</v>
+      </c>
+      <c r="U18" t="str">
+        <f>H5</f>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="17">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="3"/>
+        <v>44735</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="J19" s="4">
+        <v>16</v>
+      </c>
+      <c r="K19" s="4">
+        <v>2</v>
+      </c>
+      <c r="O19" t="s">
+        <v>46</v>
+      </c>
+      <c r="P19" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="8"/>
+        <v>=I5</v>
+      </c>
+      <c r="T19" t="s">
+        <v>64</v>
+      </c>
+      <c r="U19" t="str">
+        <f>I5</f>
+        <v>Apresentação gráfica e tabular, Medidas de posição e de dispersão.</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="17">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="3"/>
+        <v>44740</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="4">
+        <v>17</v>
+      </c>
+      <c r="K20" s="4">
+        <v>2</v>
+      </c>
+      <c r="O20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P20" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="8"/>
+        <v>=J5</v>
+      </c>
+      <c r="T20" t="s">
+        <v>65</v>
+      </c>
+      <c r="U20">
+        <f>J5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="G21" s="3">
+        <f t="shared" si="3"/>
+        <v>44742</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="4">
+        <v>18</v>
+      </c>
+      <c r="K21" s="4">
+        <v>2</v>
+      </c>
+      <c r="O21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="8"/>
+        <v>=K5</v>
+      </c>
+      <c r="T21" t="s">
+        <v>66</v>
+      </c>
+      <c r="U21">
+        <f>K5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="G22" s="3">
+        <f t="shared" si="3"/>
+        <v>44747</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="J22" s="4">
+        <v>19</v>
+      </c>
+      <c r="K22" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="16">
+        <f>U24</f>
+        <v>44691</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="3"/>
+        <v>44749</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="J23" s="4">
+        <v>20</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="16" t="str">
+        <f t="shared" ref="B24:B27" si="9">U25</f>
+        <v>Terça</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="3"/>
+        <v>44754</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="4">
+        <v>21</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>46</v>
+      </c>
+      <c r="P24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q24">
+        <f>Q17+1</f>
+        <v>6</v>
+      </c>
+      <c r="S24" t="str">
+        <f>O24&amp;P24&amp;Q24</f>
+        <v>=G6</v>
+      </c>
+      <c r="T24" t="s">
+        <v>67</v>
+      </c>
+      <c r="U24" s="25">
+        <f>G6</f>
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v>Apresentação gráfica e tabular, Medidas de posição e de dispersão.</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="3"/>
+        <v>44756</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="4">
+        <v>22</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>46</v>
+      </c>
+      <c r="P25" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" ref="Q25:Q35" si="10">Q18+1</f>
+        <v>6</v>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" ref="S25:S28" si="11">O25&amp;P25&amp;Q25</f>
+        <v>=H6</v>
+      </c>
+      <c r="T25" t="s">
+        <v>68</v>
+      </c>
+      <c r="U25" t="str">
+        <f>H6</f>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="17">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="3"/>
+        <v>44761</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="J26" s="4">
+        <v>23</v>
+      </c>
+      <c r="K26" s="4">
+        <v>2</v>
+      </c>
+      <c r="O26" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" si="11"/>
+        <v>=I6</v>
+      </c>
+      <c r="T26" t="s">
+        <v>69</v>
+      </c>
+      <c r="U26" t="str">
+        <f>I6</f>
+        <v>Apresentação gráfica e tabular, Medidas de posição e de dispersão.</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="17">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="3"/>
+        <v>44763</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="J27" s="4">
+        <v>24</v>
+      </c>
+      <c r="K27" s="4">
+        <v>2</v>
+      </c>
+      <c r="O27" t="s">
+        <v>46</v>
+      </c>
+      <c r="P27" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" si="11"/>
+        <v>=J6</v>
+      </c>
+      <c r="T27" t="s">
+        <v>70</v>
+      </c>
+      <c r="U27">
+        <f>J6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="G28" s="3">
+        <f t="shared" si="3"/>
+        <v>44768</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="4">
+        <v>25</v>
+      </c>
+      <c r="K28" s="4">
+        <v>2</v>
+      </c>
+      <c r="O28" t="s">
+        <v>46</v>
+      </c>
+      <c r="P28" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="11"/>
+        <v>=K6</v>
+      </c>
+      <c r="T28" t="s">
+        <v>71</v>
+      </c>
+      <c r="U28">
+        <f>K6</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="G29" s="3">
+        <f t="shared" si="3"/>
+        <v>44770</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="4">
+        <v>26</v>
+      </c>
+      <c r="K29" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="16">
+        <f>U31</f>
+        <v>44693</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="3"/>
+        <v>44775</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="4">
+        <v>27</v>
+      </c>
+      <c r="K30" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="16" t="str">
+        <f t="shared" ref="B31:B34" si="12">U32</f>
+        <v>Quinta</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="3"/>
+        <v>44777</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="J31" s="4">
+        <v>28</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q31">
+        <f>Q24+1</f>
+        <v>7</v>
+      </c>
+      <c r="S31" t="str">
+        <f>O31&amp;P31&amp;Q31</f>
+        <v>=G7</v>
+      </c>
+      <c r="T31" t="s">
+        <v>72</v>
+      </c>
+      <c r="U31" s="25">
+        <f>G7</f>
+        <v>44693</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>Apresentação gráfica e tabular, Medidas de posição e de dispersão.</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="3"/>
+        <v>44782</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="4">
+        <v>29</v>
+      </c>
+      <c r="K32" s="4">
+        <v>2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>46</v>
+      </c>
+      <c r="P32" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="S32" t="str">
+        <f t="shared" ref="S32:S35" si="13">O32&amp;P32&amp;Q32</f>
+        <v>=H7</v>
+      </c>
+      <c r="T32" t="s">
+        <v>73</v>
+      </c>
+      <c r="U32" t="str">
+        <f>H7</f>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="17">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="O33" t="s">
+        <v>46</v>
+      </c>
+      <c r="P33" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="S33" t="str">
+        <f t="shared" si="13"/>
+        <v>=I7</v>
+      </c>
+      <c r="T33" t="s">
+        <v>74</v>
+      </c>
+      <c r="U33" t="str">
+        <f>I7</f>
+        <v>Apresentação gráfica e tabular, Medidas de posição e de dispersão.</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="17">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="O34" t="s">
+        <v>46</v>
+      </c>
+      <c r="P34" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="S34" t="str">
+        <f t="shared" si="13"/>
+        <v>=J7</v>
+      </c>
+      <c r="T34" t="s">
+        <v>75</v>
+      </c>
+      <c r="U34">
+        <f>J7</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="O35" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="S35" t="str">
+        <f t="shared" si="13"/>
+        <v>=K7</v>
+      </c>
+      <c r="T35" t="s">
+        <v>76</v>
+      </c>
+      <c r="U35">
+        <f>K7</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="16">
+        <f>U38</f>
+        <v>44698</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="16" t="str">
+        <f t="shared" ref="B38:B41" si="14">U39</f>
+        <v>Terça</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="O38" t="s">
+        <v>46</v>
+      </c>
+      <c r="P38" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q38">
+        <f>Q31+1</f>
+        <v>8</v>
+      </c>
+      <c r="S38" t="str">
+        <f>O38&amp;P38&amp;Q38</f>
+        <v>=G8</v>
+      </c>
+      <c r="T38" t="s">
+        <v>77</v>
+      </c>
+      <c r="U38" s="25">
+        <f>G8</f>
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>Aula prática: Excel, Latex, R - Aula Gravada</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="26"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="O39" t="s">
+        <v>46</v>
+      </c>
+      <c r="P39" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" ref="Q39:Q42" si="15">Q32+1</f>
+        <v>8</v>
+      </c>
+      <c r="S39" t="str">
+        <f t="shared" ref="S39:S42" si="16">O39&amp;P39&amp;Q39</f>
+        <v>=H8</v>
+      </c>
+      <c r="T39" t="s">
+        <v>78</v>
+      </c>
+      <c r="U39" t="str">
+        <f>H8</f>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="17">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O40" t="s">
+        <v>46</v>
+      </c>
+      <c r="P40" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="S40" t="str">
+        <f t="shared" si="16"/>
+        <v>=I8</v>
+      </c>
+      <c r="T40" t="s">
+        <v>79</v>
+      </c>
+      <c r="U40" t="str">
+        <f>I8</f>
+        <v>Aula prática: Excel, Latex, R - Aula Gravada</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="17">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O41" t="s">
+        <v>46</v>
+      </c>
+      <c r="P41" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="S41" t="str">
+        <f t="shared" si="16"/>
+        <v>=J8</v>
+      </c>
+      <c r="T41" t="s">
+        <v>80</v>
+      </c>
+      <c r="U41">
+        <f>J8</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="O42" t="s">
+        <v>46</v>
+      </c>
+      <c r="P42" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="S42" t="str">
+        <f t="shared" si="16"/>
+        <v>=K8</v>
+      </c>
+      <c r="T42" t="s">
+        <v>81</v>
+      </c>
+      <c r="U42">
+        <f>K8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+    </row>
+    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="16">
+        <f>U45</f>
+        <v>44700</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="16" t="str">
+        <f t="shared" ref="B45:B48" si="17">U46</f>
+        <v>Quinta</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O45" t="s">
+        <v>46</v>
+      </c>
+      <c r="P45" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q45">
+        <f>Q38+1</f>
+        <v>9</v>
+      </c>
+      <c r="S45" t="str">
+        <f>O45&amp;P45&amp;Q45</f>
+        <v>=G9</v>
+      </c>
+      <c r="T45" t="s">
+        <v>82</v>
+      </c>
+      <c r="U45" s="25">
+        <f>G9</f>
+        <v>44700</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="16" t="str">
+        <f t="shared" si="17"/>
+        <v>Aula prática: Excel, Latex, R - Aula Gravada</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O46" t="s">
+        <v>46</v>
+      </c>
+      <c r="P46" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" ref="Q46:Q49" si="18">Q39+1</f>
+        <v>9</v>
+      </c>
+      <c r="S46" t="str">
+        <f t="shared" ref="S46:S49" si="19">O46&amp;P46&amp;Q46</f>
+        <v>=H9</v>
+      </c>
+      <c r="T46" t="s">
+        <v>83</v>
+      </c>
+      <c r="U46" t="str">
+        <f>H9</f>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="17">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O47" t="s">
+        <v>46</v>
+      </c>
+      <c r="P47" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="S47" t="str">
+        <f t="shared" si="19"/>
+        <v>=I9</v>
+      </c>
+      <c r="T47" t="s">
+        <v>84</v>
+      </c>
+      <c r="U47" t="str">
+        <f>I9</f>
+        <v>Aula prática: Excel, Latex, R - Aula Gravada</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="17">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O48" t="s">
+        <v>46</v>
+      </c>
+      <c r="P48" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="S48" t="str">
+        <f t="shared" si="19"/>
+        <v>=J9</v>
+      </c>
+      <c r="T48" t="s">
+        <v>85</v>
+      </c>
+      <c r="U48">
+        <f>J9</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="O49" t="s">
+        <v>46</v>
+      </c>
+      <c r="P49" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="S49" t="str">
+        <f t="shared" si="19"/>
+        <v>=K9</v>
+      </c>
+      <c r="T49" t="s">
+        <v>86</v>
+      </c>
+      <c r="U49">
+        <f>K9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+    </row>
+    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="16">
+        <f>U52</f>
+        <v>44705</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="16" t="str">
+        <f t="shared" ref="B52:B55" si="20">U53</f>
+        <v>Terça</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O52" t="s">
+        <v>46</v>
+      </c>
+      <c r="P52" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q52">
+        <f>Q45+1</f>
+        <v>10</v>
+      </c>
+      <c r="S52" t="str">
+        <f>O52&amp;P52&amp;Q52</f>
+        <v>=G10</v>
+      </c>
+      <c r="T52" t="s">
+        <v>87</v>
+      </c>
+      <c r="U52" s="25">
+        <f>G10</f>
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="16" t="str">
+        <f t="shared" si="20"/>
+        <v>Apresentação gráfica e tabular, Medidas de posição e de dispersão.</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O53" t="s">
+        <v>46</v>
+      </c>
+      <c r="P53" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" ref="Q53:Q56" si="21">Q46+1</f>
+        <v>10</v>
+      </c>
+      <c r="S53" t="str">
+        <f t="shared" ref="S53:S56" si="22">O53&amp;P53&amp;Q53</f>
+        <v>=H10</v>
+      </c>
+      <c r="T53" t="s">
+        <v>88</v>
+      </c>
+      <c r="U53" t="str">
+        <f>H10</f>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="17">
+        <f t="shared" si="20"/>
+        <v>7</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O54" t="s">
+        <v>46</v>
+      </c>
+      <c r="P54" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="S54" t="str">
+        <f t="shared" si="22"/>
+        <v>=I10</v>
+      </c>
+      <c r="T54" t="s">
+        <v>89</v>
+      </c>
+      <c r="U54" t="str">
+        <f>I10</f>
+        <v>Apresentação gráfica e tabular, Medidas de posição e de dispersão.</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="17">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O55" t="s">
+        <v>46</v>
+      </c>
+      <c r="P55" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="S55" t="str">
+        <f t="shared" si="22"/>
+        <v>=J10</v>
+      </c>
+      <c r="T55" t="s">
+        <v>90</v>
+      </c>
+      <c r="U55">
+        <f>J10</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="O56" t="s">
+        <v>46</v>
+      </c>
+      <c r="P56" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="S56" t="str">
+        <f t="shared" si="22"/>
+        <v>=K10</v>
+      </c>
+      <c r="T56" t="s">
+        <v>91</v>
+      </c>
+      <c r="U56">
+        <f>K10</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+    </row>
+    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="16">
+        <f>U59</f>
+        <v>44707</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="16" t="str">
+        <f t="shared" ref="B59:B62" si="23">U60</f>
+        <v>Quinta</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O59" t="s">
+        <v>46</v>
+      </c>
+      <c r="P59" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q59">
+        <f>Q52+1</f>
+        <v>11</v>
+      </c>
+      <c r="S59" t="str">
+        <f>O59&amp;P59&amp;Q59</f>
+        <v>=G11</v>
+      </c>
+      <c r="T59" t="s">
+        <v>92</v>
+      </c>
+      <c r="U59" s="25">
+        <f>G11</f>
+        <v>44707</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="16" t="str">
+        <f t="shared" si="23"/>
+        <v>Apresentação gráfica e tabular, Medidas de posição e de dispersão.</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O60" t="s">
+        <v>46</v>
+      </c>
+      <c r="P60" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" ref="Q60:Q63" si="24">Q53+1</f>
+        <v>11</v>
+      </c>
+      <c r="S60" t="str">
+        <f t="shared" ref="S60:S63" si="25">O60&amp;P60&amp;Q60</f>
+        <v>=H11</v>
+      </c>
+      <c r="T60" t="s">
+        <v>93</v>
+      </c>
+      <c r="U60" t="str">
+        <f>H11</f>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" s="17">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O61" t="s">
+        <v>46</v>
+      </c>
+      <c r="P61" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="24"/>
+        <v>11</v>
+      </c>
+      <c r="S61" t="str">
+        <f t="shared" si="25"/>
+        <v>=I11</v>
+      </c>
+      <c r="T61" t="s">
+        <v>94</v>
+      </c>
+      <c r="U61" t="str">
+        <f>I11</f>
+        <v>Apresentação gráfica e tabular, Medidas de posição e de dispersão.</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="17">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O62" t="s">
+        <v>46</v>
+      </c>
+      <c r="P62" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="24"/>
+        <v>11</v>
+      </c>
+      <c r="S62" t="str">
+        <f t="shared" si="25"/>
+        <v>=J11</v>
+      </c>
+      <c r="T62" t="s">
+        <v>95</v>
+      </c>
+      <c r="U62">
+        <f>J11</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="O63" t="s">
+        <v>46</v>
+      </c>
+      <c r="P63" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="24"/>
+        <v>11</v>
+      </c>
+      <c r="S63" t="str">
+        <f t="shared" si="25"/>
+        <v>=K11</v>
+      </c>
+      <c r="T63" t="s">
+        <v>96</v>
+      </c>
+      <c r="U63">
+        <f>K11</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+    </row>
+    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="16">
+        <f>U66</f>
+        <v>44712</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="16" t="str">
+        <f t="shared" ref="B66:B69" si="26">U67</f>
+        <v>Terça</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O66" t="s">
+        <v>46</v>
+      </c>
+      <c r="P66" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q66">
+        <f>Q59+1</f>
+        <v>12</v>
+      </c>
+      <c r="S66" t="str">
+        <f>O66&amp;P66&amp;Q66</f>
+        <v>=G12</v>
+      </c>
+      <c r="T66" t="s">
+        <v>97</v>
+      </c>
+      <c r="U66" s="25">
+        <f>G12</f>
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" s="16" t="str">
+        <f t="shared" si="26"/>
+        <v>Noções de regressão linear simples - Aula Gravada</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O67" t="s">
+        <v>46</v>
+      </c>
+      <c r="P67" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q77" si="27">Q60+1</f>
+        <v>12</v>
+      </c>
+      <c r="S67" t="str">
+        <f t="shared" ref="S67:S70" si="28">O67&amp;P67&amp;Q67</f>
+        <v>=H12</v>
+      </c>
+      <c r="T67" t="s">
+        <v>98</v>
+      </c>
+      <c r="U67" t="str">
+        <f>H12</f>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="17">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O68" t="s">
+        <v>46</v>
+      </c>
+      <c r="P68" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="S68" t="str">
+        <f t="shared" si="28"/>
+        <v>=I12</v>
+      </c>
+      <c r="T68" t="s">
+        <v>99</v>
+      </c>
+      <c r="U68" t="str">
+        <f>I12</f>
+        <v>Noções de regressão linear simples - Aula Gravada</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="17">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O69" t="s">
+        <v>46</v>
+      </c>
+      <c r="P69" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="S69" t="str">
+        <f t="shared" si="28"/>
+        <v>=J12</v>
+      </c>
+      <c r="T69" t="s">
+        <v>100</v>
+      </c>
+      <c r="U69">
+        <f>J12</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="O70" t="s">
+        <v>46</v>
+      </c>
+      <c r="P70" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="S70" t="str">
+        <f t="shared" si="28"/>
+        <v>=K12</v>
+      </c>
+      <c r="T70" t="s">
+        <v>101</v>
+      </c>
+      <c r="U70">
+        <f>K12</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+    </row>
+    <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" s="16">
+        <f>U73</f>
+        <v>44714</v>
+      </c>
+      <c r="C72" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" s="16" t="str">
+        <f t="shared" ref="B73:B76" si="29">U74</f>
+        <v>Quinta</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O73" t="s">
+        <v>46</v>
+      </c>
+      <c r="P73" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q73">
+        <f>Q66+1</f>
+        <v>13</v>
+      </c>
+      <c r="S73" t="str">
+        <f>O73&amp;P73&amp;Q73</f>
+        <v>=G13</v>
+      </c>
+      <c r="T73" t="s">
+        <v>102</v>
+      </c>
+      <c r="U73" s="25">
+        <f>G13</f>
+        <v>44714</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" s="16" t="str">
+        <f t="shared" si="29"/>
+        <v>Estimação de parâmetros - Aula Gravada</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O74" t="s">
+        <v>46</v>
+      </c>
+      <c r="P74" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
+      <c r="S74" t="str">
+        <f t="shared" ref="S74:S77" si="30">O74&amp;P74&amp;Q74</f>
+        <v>=H13</v>
+      </c>
+      <c r="T74" t="s">
+        <v>103</v>
+      </c>
+      <c r="U74" t="str">
+        <f>H13</f>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B75" s="17">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P75" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
+      <c r="S75" t="str">
+        <f t="shared" si="30"/>
+        <v>=I13</v>
+      </c>
+      <c r="T75" t="s">
+        <v>104</v>
+      </c>
+      <c r="U75" t="str">
+        <f>I13</f>
+        <v>Estimação de parâmetros - Aula Gravada</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" s="17">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O76" t="s">
+        <v>46</v>
+      </c>
+      <c r="P76" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
+      <c r="S76" t="str">
+        <f t="shared" si="30"/>
+        <v>=J13</v>
+      </c>
+      <c r="T76" t="s">
+        <v>105</v>
+      </c>
+      <c r="U76">
+        <f>J13</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="O77" t="s">
+        <v>46</v>
+      </c>
+      <c r="P77" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
+      <c r="S77" t="str">
+        <f t="shared" si="30"/>
+        <v>=K13</v>
+      </c>
+      <c r="T77" t="s">
+        <v>106</v>
+      </c>
+      <c r="U77">
+        <f>K13</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+    </row>
+    <row r="79" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B79" s="16">
+        <f>U80</f>
+        <v>44719</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80" s="16" t="str">
+        <f t="shared" ref="B80:B83" si="31">U81</f>
+        <v>Terça</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O80" t="s">
+        <v>46</v>
+      </c>
+      <c r="P80" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q80">
+        <f>Q73+1</f>
+        <v>14</v>
+      </c>
+      <c r="S80" t="str">
+        <f>O80&amp;P80&amp;Q80</f>
+        <v>=G14</v>
+      </c>
+      <c r="T80" t="s">
+        <v>107</v>
+      </c>
+      <c r="U80" s="25">
+        <f>G14</f>
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B81" s="16" t="str">
+        <f t="shared" si="31"/>
+        <v>Aplicações</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O81" t="s">
+        <v>46</v>
+      </c>
+      <c r="P81" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" ref="Q81:Q84" si="32">Q74+1</f>
+        <v>14</v>
+      </c>
+      <c r="S81" t="str">
+        <f t="shared" ref="S81:S84" si="33">O81&amp;P81&amp;Q81</f>
+        <v>=H14</v>
+      </c>
+      <c r="T81" t="s">
+        <v>108</v>
+      </c>
+      <c r="U81" t="str">
+        <f>H14</f>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" s="17">
+        <f t="shared" si="31"/>
+        <v>11</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O82" t="s">
+        <v>46</v>
+      </c>
+      <c r="P82" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="32"/>
+        <v>14</v>
+      </c>
+      <c r="S82" t="str">
+        <f t="shared" si="33"/>
+        <v>=I14</v>
+      </c>
+      <c r="T82" t="s">
+        <v>109</v>
+      </c>
+      <c r="U82" t="str">
+        <f>I14</f>
+        <v>Aplicações</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B83" s="17">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
+      <c r="C83" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O83" t="s">
+        <v>46</v>
+      </c>
+      <c r="P83" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="32"/>
+        <v>14</v>
+      </c>
+      <c r="S83" t="str">
+        <f t="shared" si="33"/>
+        <v>=J14</v>
+      </c>
+      <c r="T83" t="s">
+        <v>110</v>
+      </c>
+      <c r="U83">
+        <f>J14</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="O84" t="s">
+        <v>46</v>
+      </c>
+      <c r="P84" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="32"/>
+        <v>14</v>
+      </c>
+      <c r="S84" t="str">
+        <f t="shared" si="33"/>
+        <v>=K14</v>
+      </c>
+      <c r="T84" t="s">
+        <v>111</v>
+      </c>
+      <c r="U84">
+        <f>K14</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A85" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
+    </row>
+    <row r="86" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B86" s="16">
+        <f>U87</f>
+        <v>44721</v>
+      </c>
+      <c r="C86" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B87" s="16" t="str">
+        <f t="shared" ref="B87:B90" si="34">U88</f>
+        <v>Quinta</v>
+      </c>
+      <c r="C87" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O87" t="s">
+        <v>46</v>
+      </c>
+      <c r="P87" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q87">
+        <f>Q80+1</f>
+        <v>15</v>
+      </c>
+      <c r="S87" t="str">
+        <f>O87&amp;P87&amp;Q87</f>
+        <v>=G15</v>
+      </c>
+      <c r="T87" t="s">
+        <v>112</v>
+      </c>
+      <c r="U87" s="25">
+        <f>G15</f>
+        <v>44721</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B88" s="16" t="str">
+        <f t="shared" si="34"/>
+        <v>Primeira Prova - Valor 100 pontos</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O88" t="s">
+        <v>46</v>
+      </c>
+      <c r="P88" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" ref="Q88:Q91" si="35">Q81+1</f>
+        <v>15</v>
+      </c>
+      <c r="S88" t="str">
+        <f t="shared" ref="S88:S91" si="36">O88&amp;P88&amp;Q88</f>
+        <v>=H15</v>
+      </c>
+      <c r="T88" t="s">
+        <v>113</v>
+      </c>
+      <c r="U88" t="str">
+        <f>H15</f>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B89" s="17">
+        <f t="shared" si="34"/>
+        <v>12</v>
+      </c>
+      <c r="C89" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O89" t="s">
+        <v>46</v>
+      </c>
+      <c r="P89" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="35"/>
+        <v>15</v>
+      </c>
+      <c r="S89" t="str">
+        <f t="shared" si="36"/>
+        <v>=I15</v>
+      </c>
+      <c r="T89" t="s">
+        <v>114</v>
+      </c>
+      <c r="U89" t="str">
+        <f>I15</f>
+        <v>Primeira Prova - Valor 100 pontos</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B90" s="17">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="C90" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O90" t="s">
+        <v>46</v>
+      </c>
+      <c r="P90" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="35"/>
+        <v>15</v>
+      </c>
+      <c r="S90" t="str">
+        <f t="shared" si="36"/>
+        <v>=J15</v>
+      </c>
+      <c r="T90" t="s">
+        <v>115</v>
+      </c>
+      <c r="U90">
+        <f>J15</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A91" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="O91" t="s">
+        <v>46</v>
+      </c>
+      <c r="P91" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="35"/>
+        <v>15</v>
+      </c>
+      <c r="S91" t="str">
+        <f t="shared" si="36"/>
+        <v>=K15</v>
+      </c>
+      <c r="T91" t="s">
+        <v>116</v>
+      </c>
+      <c r="U91">
+        <f>K15</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A92" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+    </row>
+    <row r="93" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B93" s="16">
+        <f>U94</f>
+        <v>44726</v>
+      </c>
+      <c r="C93" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" s="16" t="str">
+        <f t="shared" ref="B94:B97" si="37">U95</f>
+        <v>Terça</v>
+      </c>
+      <c r="C94" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O94" t="s">
+        <v>46</v>
+      </c>
+      <c r="P94" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q94">
+        <f>Q87+1</f>
+        <v>16</v>
+      </c>
+      <c r="S94" t="str">
+        <f>O94&amp;P94&amp;Q94</f>
+        <v>=G16</v>
+      </c>
+      <c r="T94" t="s">
+        <v>117</v>
+      </c>
+      <c r="U94" s="25">
+        <f>G16</f>
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95" s="16" t="str">
+        <f t="shared" si="37"/>
+        <v>Correção da primeira prova - Aula Gravada</v>
+      </c>
+      <c r="C95" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O95" t="s">
+        <v>46</v>
+      </c>
+      <c r="P95" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" ref="Q95:Q98" si="38">Q88+1</f>
+        <v>16</v>
+      </c>
+      <c r="S95" t="str">
+        <f t="shared" ref="S95:S98" si="39">O95&amp;P95&amp;Q95</f>
+        <v>=H16</v>
+      </c>
+      <c r="T95" t="s">
+        <v>118</v>
+      </c>
+      <c r="U95" t="str">
+        <f>H16</f>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B96" s="17">
+        <f t="shared" si="37"/>
+        <v>13</v>
+      </c>
+      <c r="C96" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O96" t="s">
+        <v>46</v>
+      </c>
+      <c r="P96" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="38"/>
+        <v>16</v>
+      </c>
+      <c r="S96" t="str">
+        <f t="shared" si="39"/>
+        <v>=I16</v>
+      </c>
+      <c r="T96" t="s">
+        <v>119</v>
+      </c>
+      <c r="U96" t="str">
+        <f>I16</f>
+        <v>Correção da primeira prova - Aula Gravada</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B97" s="17">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O97" t="s">
+        <v>46</v>
+      </c>
+      <c r="P97" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="38"/>
+        <v>16</v>
+      </c>
+      <c r="S97" t="str">
+        <f t="shared" si="39"/>
+        <v>=J16</v>
+      </c>
+      <c r="T97" t="s">
+        <v>120</v>
+      </c>
+      <c r="U97">
+        <f>J16</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A98" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B98" s="28"/>
+      <c r="C98" s="28"/>
+      <c r="O98" t="s">
+        <v>46</v>
+      </c>
+      <c r="P98" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="38"/>
+        <v>16</v>
+      </c>
+      <c r="S98" t="str">
+        <f t="shared" si="39"/>
+        <v>=K16</v>
+      </c>
+      <c r="T98" t="s">
+        <v>121</v>
+      </c>
+      <c r="U98">
+        <f>K16</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A99" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
+    </row>
+    <row r="100" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B100" s="16">
+        <f>U101</f>
+        <v>44728</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B101" s="16" t="str">
+        <f t="shared" ref="B101:B104" si="40">U102</f>
+        <v>Quinta</v>
+      </c>
+      <c r="C101" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O101" t="s">
+        <v>46</v>
+      </c>
+      <c r="P101" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q101">
+        <f>Q94+1</f>
+        <v>17</v>
+      </c>
+      <c r="S101" t="str">
+        <f>O101&amp;P101&amp;Q101</f>
+        <v>=G17</v>
+      </c>
+      <c r="T101" t="s">
+        <v>122</v>
+      </c>
+      <c r="U101" s="25">
+        <f>G17</f>
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B102" s="16" t="str">
+        <f t="shared" si="40"/>
+        <v>Recesso Escolar</v>
+      </c>
+      <c r="C102" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O102" t="s">
+        <v>46</v>
+      </c>
+      <c r="P102" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" ref="Q102:Q105" si="41">Q95+1</f>
+        <v>17</v>
+      </c>
+      <c r="S102" t="str">
+        <f t="shared" ref="S102:S105" si="42">O102&amp;P102&amp;Q102</f>
+        <v>=H17</v>
+      </c>
+      <c r="T102" t="s">
+        <v>123</v>
+      </c>
+      <c r="U102" t="str">
+        <f>H17</f>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B103" s="17">
+        <f t="shared" si="40"/>
+        <v>14</v>
+      </c>
+      <c r="C103" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O103" t="s">
+        <v>46</v>
+      </c>
+      <c r="P103" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="41"/>
+        <v>17</v>
+      </c>
+      <c r="S103" t="str">
+        <f t="shared" si="42"/>
+        <v>=I17</v>
+      </c>
+      <c r="T103" t="s">
+        <v>124</v>
+      </c>
+      <c r="U103" t="str">
+        <f>I17</f>
+        <v>Recesso Escolar</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B104" s="17">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O104" t="s">
+        <v>46</v>
+      </c>
+      <c r="P104" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="41"/>
+        <v>17</v>
+      </c>
+      <c r="S104" t="str">
+        <f t="shared" si="42"/>
+        <v>=J17</v>
+      </c>
+      <c r="T104" t="s">
+        <v>125</v>
+      </c>
+      <c r="U104">
+        <f>J17</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A105" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" s="28"/>
+      <c r="C105" s="28"/>
+      <c r="O105" t="s">
+        <v>46</v>
+      </c>
+      <c r="P105" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="41"/>
+        <v>17</v>
+      </c>
+      <c r="S105" t="str">
+        <f t="shared" si="42"/>
+        <v>=K17</v>
+      </c>
+      <c r="T105" t="s">
+        <v>126</v>
+      </c>
+      <c r="U105">
+        <f>K17</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A106" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B106" s="28"/>
+      <c r="C106" s="28"/>
+    </row>
+    <row r="107" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B107" s="16">
+        <f>U108</f>
+        <v>44733</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B108" s="16" t="str">
+        <f t="shared" ref="B108:B111" si="43">U109</f>
+        <v>Terça</v>
+      </c>
+      <c r="C108" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O108" t="s">
+        <v>46</v>
+      </c>
+      <c r="P108" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q108">
+        <f>Q101+1</f>
+        <v>18</v>
+      </c>
+      <c r="S108" t="str">
+        <f>O108&amp;P108&amp;Q108</f>
+        <v>=G18</v>
+      </c>
+      <c r="T108" t="s">
+        <v>127</v>
+      </c>
+      <c r="U108" s="25">
+        <f>G18</f>
+        <v>44733</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B109" s="16" t="str">
+        <f t="shared" si="43"/>
+        <v>Variáveis aleatórias discretas: funções de probabilidade</v>
+      </c>
+      <c r="C109" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O109" t="s">
+        <v>46</v>
+      </c>
+      <c r="P109" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" ref="Q109:Q119" si="44">Q102+1</f>
+        <v>18</v>
+      </c>
+      <c r="S109" t="str">
+        <f t="shared" ref="S109:S112" si="45">O109&amp;P109&amp;Q109</f>
+        <v>=H18</v>
+      </c>
+      <c r="T109" t="s">
+        <v>128</v>
+      </c>
+      <c r="U109" t="str">
+        <f>H18</f>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B110" s="17">
+        <f t="shared" si="43"/>
+        <v>15</v>
+      </c>
+      <c r="C110" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O110" t="s">
+        <v>46</v>
+      </c>
+      <c r="P110" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="44"/>
+        <v>18</v>
+      </c>
+      <c r="S110" t="str">
+        <f t="shared" si="45"/>
+        <v>=I18</v>
+      </c>
+      <c r="T110" t="s">
+        <v>129</v>
+      </c>
+      <c r="U110" t="str">
+        <f>I18</f>
+        <v>Variáveis aleatórias discretas: funções de probabilidade</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B111" s="17">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="C111" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O111" t="s">
+        <v>46</v>
+      </c>
+      <c r="P111" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="44"/>
+        <v>18</v>
+      </c>
+      <c r="S111" t="str">
+        <f t="shared" si="45"/>
+        <v>=J18</v>
+      </c>
+      <c r="T111" t="s">
+        <v>130</v>
+      </c>
+      <c r="U111">
+        <f>J18</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A112" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B112" s="28"/>
+      <c r="C112" s="28"/>
+      <c r="O112" t="s">
+        <v>46</v>
+      </c>
+      <c r="P112" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" si="44"/>
+        <v>18</v>
+      </c>
+      <c r="S112" t="str">
+        <f t="shared" si="45"/>
+        <v>=K18</v>
+      </c>
+      <c r="T112" t="s">
+        <v>131</v>
+      </c>
+      <c r="U112">
+        <f>K18</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A113" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B113" s="28"/>
+      <c r="C113" s="28"/>
+    </row>
+    <row r="114" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B114" s="16">
+        <f>U115</f>
+        <v>44735</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B115" s="16" t="str">
+        <f t="shared" ref="B115:B118" si="46">U116</f>
+        <v>Quinta</v>
+      </c>
+      <c r="C115" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O115" t="s">
+        <v>46</v>
+      </c>
+      <c r="P115" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q115">
+        <f>Q108+1</f>
+        <v>19</v>
+      </c>
+      <c r="S115" t="str">
+        <f>O115&amp;P115&amp;Q115</f>
+        <v>=G19</v>
+      </c>
+      <c r="T115" t="s">
+        <v>132</v>
+      </c>
+      <c r="U115" s="25">
+        <f>G19</f>
+        <v>44735</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B116" s="16" t="str">
+        <f t="shared" si="46"/>
+        <v>Variáveis aleatórias discretas e contínuas, Funções de variáveis aleatórias, Variáveis aleatórias contínuas: funções densidade de probabilidade</v>
+      </c>
+      <c r="C116" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O116" t="s">
+        <v>46</v>
+      </c>
+      <c r="P116" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="44"/>
+        <v>19</v>
+      </c>
+      <c r="S116" t="str">
+        <f t="shared" ref="S116:S119" si="47">O116&amp;P116&amp;Q116</f>
+        <v>=H19</v>
+      </c>
+      <c r="T116" t="s">
+        <v>133</v>
+      </c>
+      <c r="U116" t="str">
+        <f>H19</f>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B117" s="17">
+        <f t="shared" si="46"/>
+        <v>16</v>
+      </c>
+      <c r="C117" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O117" t="s">
+        <v>46</v>
+      </c>
+      <c r="P117" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" si="44"/>
+        <v>19</v>
+      </c>
+      <c r="S117" t="str">
+        <f t="shared" si="47"/>
+        <v>=I19</v>
+      </c>
+      <c r="T117" t="s">
+        <v>134</v>
+      </c>
+      <c r="U117" t="str">
+        <f>I19</f>
+        <v>Variáveis aleatórias discretas e contínuas, Funções de variáveis aleatórias, Variáveis aleatórias contínuas: funções densidade de probabilidade</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B118" s="17">
+        <f t="shared" si="46"/>
+        <v>2</v>
+      </c>
+      <c r="C118" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O118" t="s">
+        <v>46</v>
+      </c>
+      <c r="P118" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="44"/>
+        <v>19</v>
+      </c>
+      <c r="S118" t="str">
+        <f t="shared" si="47"/>
+        <v>=J19</v>
+      </c>
+      <c r="T118" t="s">
+        <v>135</v>
+      </c>
+      <c r="U118">
+        <f>J19</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A119" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B119" s="28"/>
+      <c r="C119" s="28"/>
+      <c r="O119" t="s">
+        <v>46</v>
+      </c>
+      <c r="P119" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" si="44"/>
+        <v>19</v>
+      </c>
+      <c r="S119" t="str">
+        <f t="shared" si="47"/>
+        <v>=K19</v>
+      </c>
+      <c r="T119" t="s">
+        <v>136</v>
+      </c>
+      <c r="U119">
+        <f>K19</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A120" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B120" s="28"/>
+      <c r="C120" s="28"/>
+    </row>
+    <row r="121" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B121" s="16">
+        <f>U122</f>
+        <v>44740</v>
+      </c>
+      <c r="C121" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B122" s="16" t="str">
+        <f t="shared" ref="B122:B125" si="48">U123</f>
+        <v>Terça</v>
+      </c>
+      <c r="C122" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O122" t="s">
+        <v>46</v>
+      </c>
+      <c r="P122" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q122">
+        <f>Q115+1</f>
+        <v>20</v>
+      </c>
+      <c r="S122" t="str">
+        <f>O122&amp;P122&amp;Q122</f>
+        <v>=G20</v>
+      </c>
+      <c r="T122" t="s">
+        <v>137</v>
+      </c>
+      <c r="U122" s="25">
+        <f>G20</f>
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B123" s="16" t="str">
+        <f t="shared" si="48"/>
+        <v>Distribuições de variáveis aleatórias discretas e contínuas, Distribuições de variáveis aleatórias discretas: uniforme, binomial e Poisson</v>
+      </c>
+      <c r="C123" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O123" t="s">
+        <v>46</v>
+      </c>
+      <c r="P123" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q123">
+        <f t="shared" ref="Q123:Q126" si="49">Q116+1</f>
+        <v>20</v>
+      </c>
+      <c r="S123" t="str">
+        <f t="shared" ref="S123:S126" si="50">O123&amp;P123&amp;Q123</f>
+        <v>=H20</v>
+      </c>
+      <c r="T123" t="s">
+        <v>138</v>
+      </c>
+      <c r="U123" t="str">
+        <f>H20</f>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B124" s="17">
+        <f t="shared" si="48"/>
+        <v>17</v>
+      </c>
+      <c r="C124" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O124" t="s">
+        <v>46</v>
+      </c>
+      <c r="P124" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" si="49"/>
+        <v>20</v>
+      </c>
+      <c r="S124" t="str">
+        <f t="shared" si="50"/>
+        <v>=I20</v>
+      </c>
+      <c r="T124" t="s">
+        <v>139</v>
+      </c>
+      <c r="U124" t="str">
+        <f>I20</f>
+        <v>Distribuições de variáveis aleatórias discretas e contínuas, Distribuições de variáveis aleatórias discretas: uniforme, binomial e Poisson</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B125" s="17">
+        <f t="shared" si="48"/>
+        <v>2</v>
+      </c>
+      <c r="C125" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O125" t="s">
+        <v>46</v>
+      </c>
+      <c r="P125" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" si="49"/>
+        <v>20</v>
+      </c>
+      <c r="S125" t="str">
+        <f t="shared" si="50"/>
+        <v>=J20</v>
+      </c>
+      <c r="T125" t="s">
+        <v>140</v>
+      </c>
+      <c r="U125">
+        <f>J20</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A126" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B126" s="28"/>
+      <c r="C126" s="28"/>
+      <c r="O126" t="s">
+        <v>46</v>
+      </c>
+      <c r="P126" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" si="49"/>
+        <v>20</v>
+      </c>
+      <c r="S126" t="str">
+        <f t="shared" si="50"/>
+        <v>=K20</v>
+      </c>
+      <c r="T126" t="s">
+        <v>141</v>
+      </c>
+      <c r="U126">
+        <f>K20</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A127" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B127" s="28"/>
+      <c r="C127" s="28"/>
+    </row>
+    <row r="128" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B128" s="16">
+        <f>U129</f>
+        <v>44742</v>
+      </c>
+      <c r="C128" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B129" s="16" t="str">
+        <f t="shared" ref="B129:B132" si="51">U130</f>
+        <v>Quinta</v>
+      </c>
+      <c r="C129" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O129" t="s">
+        <v>46</v>
+      </c>
+      <c r="P129" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q129">
+        <f>Q122+1</f>
+        <v>21</v>
+      </c>
+      <c r="S129" t="str">
+        <f>O129&amp;P129&amp;Q129</f>
+        <v>=G21</v>
+      </c>
+      <c r="T129" t="s">
+        <v>142</v>
+      </c>
+      <c r="U129" s="25">
+        <f>G21</f>
+        <v>44742</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B130" s="16" t="str">
+        <f t="shared" si="51"/>
+        <v>Distribuição de variáveis aleatórias contínuas: uniforme e normal</v>
+      </c>
+      <c r="C130" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O130" t="s">
+        <v>46</v>
+      </c>
+      <c r="P130" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q130">
+        <f t="shared" ref="Q130:Q133" si="52">Q123+1</f>
+        <v>21</v>
+      </c>
+      <c r="S130" t="str">
+        <f t="shared" ref="S130:S133" si="53">O130&amp;P130&amp;Q130</f>
+        <v>=H21</v>
+      </c>
+      <c r="T130" t="s">
+        <v>143</v>
+      </c>
+      <c r="U130" t="str">
+        <f>H21</f>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B131" s="17">
+        <f t="shared" si="51"/>
+        <v>18</v>
+      </c>
+      <c r="C131" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O131" t="s">
+        <v>46</v>
+      </c>
+      <c r="P131" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q131">
+        <f t="shared" si="52"/>
+        <v>21</v>
+      </c>
+      <c r="S131" t="str">
+        <f t="shared" si="53"/>
+        <v>=I21</v>
+      </c>
+      <c r="T131" t="s">
+        <v>144</v>
+      </c>
+      <c r="U131" t="str">
+        <f>I21</f>
+        <v>Distribuição de variáveis aleatórias contínuas: uniforme e normal</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B132" s="17">
+        <f t="shared" si="51"/>
+        <v>2</v>
+      </c>
+      <c r="C132" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O132" t="s">
+        <v>46</v>
+      </c>
+      <c r="P132" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q132">
+        <f t="shared" si="52"/>
+        <v>21</v>
+      </c>
+      <c r="S132" t="str">
+        <f t="shared" si="53"/>
+        <v>=J21</v>
+      </c>
+      <c r="T132" t="s">
+        <v>145</v>
+      </c>
+      <c r="U132">
+        <f>J21</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A133" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B133" s="28"/>
+      <c r="C133" s="28"/>
+      <c r="O133" t="s">
+        <v>46</v>
+      </c>
+      <c r="P133" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q133">
+        <f t="shared" si="52"/>
+        <v>21</v>
+      </c>
+      <c r="S133" t="str">
+        <f t="shared" si="53"/>
+        <v>=K21</v>
+      </c>
+      <c r="T133" t="s">
+        <v>146</v>
+      </c>
+      <c r="U133">
+        <f>K21</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A134" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B134" s="28"/>
+      <c r="C134" s="28"/>
+    </row>
+    <row r="135" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B135" s="16">
+        <f>U136</f>
+        <v>44747</v>
+      </c>
+      <c r="C135" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B136" s="16" t="str">
+        <f t="shared" ref="B136:B139" si="54">U137</f>
+        <v>Terça</v>
+      </c>
+      <c r="C136" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O136" t="s">
+        <v>46</v>
+      </c>
+      <c r="P136" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q136">
+        <f>Q129+1</f>
+        <v>22</v>
+      </c>
+      <c r="S136" t="str">
+        <f>O136&amp;P136&amp;Q136</f>
+        <v>=G22</v>
+      </c>
+      <c r="T136" t="s">
+        <v>147</v>
+      </c>
+      <c r="U136" s="25">
+        <f>G22</f>
+        <v>44747</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B137" s="16" t="str">
+        <f t="shared" si="54"/>
+        <v>Aula Prática (Distribuição Normal no R e no Geogebra)- Aula Gravada</v>
+      </c>
+      <c r="C137" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O137" t="s">
+        <v>46</v>
+      </c>
+      <c r="P137" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q137">
+        <f t="shared" ref="Q137:Q140" si="55">Q130+1</f>
+        <v>22</v>
+      </c>
+      <c r="S137" t="str">
+        <f t="shared" ref="S137:S140" si="56">O137&amp;P137&amp;Q137</f>
+        <v>=H22</v>
+      </c>
+      <c r="T137" t="s">
+        <v>148</v>
+      </c>
+      <c r="U137" t="str">
+        <f>H22</f>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B138" s="17">
+        <f t="shared" si="54"/>
+        <v>19</v>
+      </c>
+      <c r="C138" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O138" t="s">
+        <v>46</v>
+      </c>
+      <c r="P138" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q138">
+        <f t="shared" si="55"/>
+        <v>22</v>
+      </c>
+      <c r="S138" t="str">
+        <f t="shared" si="56"/>
+        <v>=I22</v>
+      </c>
+      <c r="T138" t="s">
+        <v>149</v>
+      </c>
+      <c r="U138" t="str">
+        <f>I22</f>
+        <v>Aula Prática (Distribuição Normal no R e no Geogebra)- Aula Gravada</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B139" s="17">
+        <f t="shared" si="54"/>
+        <v>2</v>
+      </c>
+      <c r="C139" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O139" t="s">
+        <v>46</v>
+      </c>
+      <c r="P139" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q139">
+        <f t="shared" si="55"/>
+        <v>22</v>
+      </c>
+      <c r="S139" t="str">
+        <f t="shared" si="56"/>
+        <v>=J22</v>
+      </c>
+      <c r="T139" t="s">
+        <v>150</v>
+      </c>
+      <c r="U139">
+        <f>J22</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A140" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B140" s="28"/>
+      <c r="C140" s="28"/>
+      <c r="O140" t="s">
+        <v>46</v>
+      </c>
+      <c r="P140" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q140">
+        <f t="shared" si="55"/>
+        <v>22</v>
+      </c>
+      <c r="S140" t="str">
+        <f t="shared" si="56"/>
+        <v>=K22</v>
+      </c>
+      <c r="T140" t="s">
+        <v>151</v>
+      </c>
+      <c r="U140">
+        <f>K22</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A141" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B141" s="28"/>
+      <c r="C141" s="28"/>
+    </row>
+    <row r="142" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B142" s="16">
+        <f>U143</f>
+        <v>44749</v>
+      </c>
+      <c r="C142" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B143" s="16" t="str">
+        <f t="shared" ref="B143:B146" si="57">U144</f>
+        <v>Quinta</v>
+      </c>
+      <c r="C143" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O143" t="s">
+        <v>46</v>
+      </c>
+      <c r="P143" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q143">
+        <f>Q136+1</f>
+        <v>23</v>
+      </c>
+      <c r="S143" t="str">
+        <f>O143&amp;P143&amp;Q143</f>
+        <v>=G23</v>
+      </c>
+      <c r="T143" t="s">
+        <v>152</v>
+      </c>
+      <c r="U143" s="25">
+        <f>G23</f>
+        <v>44749</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B144" s="16" t="str">
+        <f t="shared" si="57"/>
+        <v>Aula Prática (Distribuição Normal no R e no Geogebra)- Aula Gravada</v>
+      </c>
+      <c r="C144" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O144" t="s">
+        <v>46</v>
+      </c>
+      <c r="P144" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q144">
+        <f t="shared" ref="Q144:Q147" si="58">Q137+1</f>
+        <v>23</v>
+      </c>
+      <c r="S144" t="str">
+        <f t="shared" ref="S144:S147" si="59">O144&amp;P144&amp;Q144</f>
+        <v>=H23</v>
+      </c>
+      <c r="T144" t="s">
+        <v>153</v>
+      </c>
+      <c r="U144" t="str">
+        <f>H23</f>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B145" s="17">
+        <f t="shared" si="57"/>
+        <v>20</v>
+      </c>
+      <c r="C145" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O145" t="s">
+        <v>46</v>
+      </c>
+      <c r="P145" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q145">
+        <f t="shared" si="58"/>
+        <v>23</v>
+      </c>
+      <c r="S145" t="str">
+        <f t="shared" si="59"/>
+        <v>=I23</v>
+      </c>
+      <c r="T145" t="s">
+        <v>154</v>
+      </c>
+      <c r="U145" t="str">
+        <f>I23</f>
+        <v>Aula Prática (Distribuição Normal no R e no Geogebra)- Aula Gravada</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B146" s="17">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="C146" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O146" t="s">
+        <v>46</v>
+      </c>
+      <c r="P146" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q146">
+        <f t="shared" si="58"/>
+        <v>23</v>
+      </c>
+      <c r="S146" t="str">
+        <f t="shared" si="59"/>
+        <v>=J23</v>
+      </c>
+      <c r="T146" t="s">
+        <v>155</v>
+      </c>
+      <c r="U146">
+        <f>J23</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A147" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B147" s="28"/>
+      <c r="C147" s="28"/>
+      <c r="O147" t="s">
+        <v>46</v>
+      </c>
+      <c r="P147" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q147">
+        <f t="shared" si="58"/>
+        <v>23</v>
+      </c>
+      <c r="S147" t="str">
+        <f t="shared" si="59"/>
+        <v>=K23</v>
+      </c>
+      <c r="T147" t="s">
+        <v>156</v>
+      </c>
+      <c r="U147">
+        <f>K23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A148" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B148" s="28"/>
+      <c r="C148" s="28"/>
+    </row>
+    <row r="149" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B149" s="16">
+        <f>U150</f>
+        <v>44754</v>
+      </c>
+      <c r="C149" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B150" s="16" t="str">
+        <f t="shared" ref="B150:B153" si="60">U151</f>
+        <v>Terça</v>
+      </c>
+      <c r="C150" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O150" t="s">
+        <v>46</v>
+      </c>
+      <c r="P150" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q150">
+        <f>Q143+1</f>
+        <v>24</v>
+      </c>
+      <c r="S150" t="str">
+        <f>O150&amp;P150&amp;Q150</f>
+        <v>=G24</v>
+      </c>
+      <c r="T150" t="s">
+        <v>157</v>
+      </c>
+      <c r="U150" s="25">
+        <f>G24</f>
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B151" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v>Aula de exercícios</v>
+      </c>
+      <c r="C151" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O151" t="s">
+        <v>46</v>
+      </c>
+      <c r="P151" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q151">
+        <f t="shared" ref="Q151:Q161" si="61">Q144+1</f>
+        <v>24</v>
+      </c>
+      <c r="S151" t="str">
+        <f t="shared" ref="S151:S154" si="62">O151&amp;P151&amp;Q151</f>
+        <v>=H24</v>
+      </c>
+      <c r="T151" t="s">
+        <v>158</v>
+      </c>
+      <c r="U151" t="str">
+        <f>H24</f>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B152" s="17">
+        <f t="shared" si="60"/>
+        <v>21</v>
+      </c>
+      <c r="C152" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O152" t="s">
+        <v>46</v>
+      </c>
+      <c r="P152" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q152">
+        <f t="shared" si="61"/>
+        <v>24</v>
+      </c>
+      <c r="S152" t="str">
+        <f t="shared" si="62"/>
+        <v>=I24</v>
+      </c>
+      <c r="T152" t="s">
+        <v>159</v>
+      </c>
+      <c r="U152" t="str">
+        <f>I24</f>
+        <v>Aula de exercícios</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B153" s="17">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="C153" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O153" t="s">
+        <v>46</v>
+      </c>
+      <c r="P153" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q153">
+        <f t="shared" si="61"/>
+        <v>24</v>
+      </c>
+      <c r="S153" t="str">
+        <f t="shared" si="62"/>
+        <v>=J24</v>
+      </c>
+      <c r="T153" t="s">
+        <v>160</v>
+      </c>
+      <c r="U153">
+        <f>J24</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A154" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B154" s="28"/>
+      <c r="C154" s="28"/>
+      <c r="O154" t="s">
+        <v>46</v>
+      </c>
+      <c r="P154" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q154">
+        <f t="shared" si="61"/>
+        <v>24</v>
+      </c>
+      <c r="S154" t="str">
+        <f t="shared" si="62"/>
+        <v>=K24</v>
+      </c>
+      <c r="T154" t="s">
+        <v>161</v>
+      </c>
+      <c r="U154">
+        <f>K24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A155" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B155" s="28"/>
+      <c r="C155" s="28"/>
+    </row>
+    <row r="156" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B156" s="16">
+        <f>U157</f>
+        <v>44756</v>
+      </c>
+      <c r="C156" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B157" s="16" t="str">
+        <f t="shared" ref="B157:B160" si="63">U158</f>
+        <v>Quinta</v>
+      </c>
+      <c r="C157" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O157" t="s">
+        <v>46</v>
+      </c>
+      <c r="P157" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q157">
+        <f>Q150+1</f>
+        <v>25</v>
+      </c>
+      <c r="S157" t="str">
+        <f>O157&amp;P157&amp;Q157</f>
+        <v>=G25</v>
+      </c>
+      <c r="T157" t="s">
+        <v>162</v>
+      </c>
+      <c r="U157" s="25">
+        <f>G25</f>
+        <v>44756</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B158" s="16" t="str">
+        <f t="shared" si="63"/>
+        <v>Segunda Prova</v>
+      </c>
+      <c r="C158" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O158" t="s">
+        <v>46</v>
+      </c>
+      <c r="P158" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q158">
+        <f t="shared" si="61"/>
+        <v>25</v>
+      </c>
+      <c r="S158" t="str">
+        <f t="shared" ref="S158:S161" si="64">O158&amp;P158&amp;Q158</f>
+        <v>=H25</v>
+      </c>
+      <c r="T158" t="s">
+        <v>163</v>
+      </c>
+      <c r="U158" t="str">
+        <f>H25</f>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B159" s="17">
+        <f t="shared" si="63"/>
+        <v>22</v>
+      </c>
+      <c r="C159" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O159" t="s">
+        <v>46</v>
+      </c>
+      <c r="P159" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q159">
+        <f t="shared" si="61"/>
+        <v>25</v>
+      </c>
+      <c r="S159" t="str">
+        <f t="shared" si="64"/>
+        <v>=I25</v>
+      </c>
+      <c r="T159" t="s">
+        <v>164</v>
+      </c>
+      <c r="U159" t="str">
+        <f>I25</f>
+        <v>Segunda Prova</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B160" s="17">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="C160" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O160" t="s">
+        <v>46</v>
+      </c>
+      <c r="P160" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q160">
+        <f t="shared" si="61"/>
+        <v>25</v>
+      </c>
+      <c r="S160" t="str">
+        <f t="shared" si="64"/>
+        <v>=J25</v>
+      </c>
+      <c r="T160" t="s">
+        <v>165</v>
+      </c>
+      <c r="U160">
+        <f>J25</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A161" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B161" s="28"/>
+      <c r="C161" s="28"/>
+      <c r="O161" t="s">
+        <v>46</v>
+      </c>
+      <c r="P161" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q161">
+        <f t="shared" si="61"/>
+        <v>25</v>
+      </c>
+      <c r="S161" t="str">
+        <f t="shared" si="64"/>
+        <v>=K25</v>
+      </c>
+      <c r="T161" t="s">
+        <v>166</v>
+      </c>
+      <c r="U161">
+        <f>K25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A162" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B162" s="28"/>
+      <c r="C162" s="28"/>
+    </row>
+    <row r="163" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B163" s="16">
+        <f>U164</f>
+        <v>44761</v>
+      </c>
+      <c r="C163" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B164" s="16" t="str">
+        <f t="shared" ref="B164:B167" si="65">U165</f>
+        <v>Terça</v>
+      </c>
+      <c r="C164" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O164" t="s">
+        <v>46</v>
+      </c>
+      <c r="P164" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q164">
+        <f>Q157+1</f>
+        <v>26</v>
+      </c>
+      <c r="S164" t="str">
+        <f>O164&amp;P164&amp;Q164</f>
+        <v>=G26</v>
+      </c>
+      <c r="T164" t="s">
+        <v>167</v>
+      </c>
+      <c r="U164" s="25">
+        <f>G26</f>
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B165" s="16" t="str">
+        <f t="shared" si="65"/>
+        <v>Correção da Segunda prova - Aula Gravada</v>
+      </c>
+      <c r="C165" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O165" t="s">
+        <v>46</v>
+      </c>
+      <c r="P165" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q165">
+        <f t="shared" ref="Q165:Q168" si="66">Q158+1</f>
+        <v>26</v>
+      </c>
+      <c r="S165" t="str">
+        <f t="shared" ref="S165:S168" si="67">O165&amp;P165&amp;Q165</f>
+        <v>=H26</v>
+      </c>
+      <c r="T165" t="s">
+        <v>168</v>
+      </c>
+      <c r="U165" t="str">
+        <f>H26</f>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B166" s="17">
+        <f t="shared" si="65"/>
+        <v>23</v>
+      </c>
+      <c r="C166" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O166" t="s">
+        <v>46</v>
+      </c>
+      <c r="P166" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q166">
+        <f t="shared" si="66"/>
+        <v>26</v>
+      </c>
+      <c r="S166" t="str">
+        <f t="shared" si="67"/>
+        <v>=I26</v>
+      </c>
+      <c r="T166" t="s">
+        <v>169</v>
+      </c>
+      <c r="U166" t="str">
+        <f>I26</f>
+        <v>Correção da Segunda prova - Aula Gravada</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B167" s="17">
+        <f t="shared" si="65"/>
+        <v>2</v>
+      </c>
+      <c r="C167" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O167" t="s">
+        <v>46</v>
+      </c>
+      <c r="P167" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q167">
+        <f t="shared" si="66"/>
+        <v>26</v>
+      </c>
+      <c r="S167" t="str">
+        <f t="shared" si="67"/>
+        <v>=J26</v>
+      </c>
+      <c r="T167" t="s">
+        <v>170</v>
+      </c>
+      <c r="U167">
+        <f>J26</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A168" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B168" s="28"/>
+      <c r="C168" s="28"/>
+      <c r="O168" t="s">
+        <v>46</v>
+      </c>
+      <c r="P168" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q168">
+        <f t="shared" si="66"/>
+        <v>26</v>
+      </c>
+      <c r="S168" t="str">
+        <f t="shared" si="67"/>
+        <v>=K26</v>
+      </c>
+      <c r="T168" t="s">
+        <v>171</v>
+      </c>
+      <c r="U168">
+        <f>K26</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A169" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B169" s="28"/>
+      <c r="C169" s="28"/>
+    </row>
+    <row r="170" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B170" s="16">
+        <f>U171</f>
+        <v>44763</v>
+      </c>
+      <c r="C170" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B171" s="16" t="str">
+        <f t="shared" ref="B171:B174" si="68">U172</f>
+        <v>Quinta</v>
+      </c>
+      <c r="C171" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O171" t="s">
+        <v>46</v>
+      </c>
+      <c r="P171" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q171">
+        <f>Q164+1</f>
+        <v>27</v>
+      </c>
+      <c r="S171" t="str">
+        <f>O171&amp;P171&amp;Q171</f>
+        <v>=G27</v>
+      </c>
+      <c r="T171" t="s">
+        <v>172</v>
+      </c>
+      <c r="U171" s="25">
+        <f>G27</f>
+        <v>44763</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B172" s="16" t="str">
+        <f t="shared" si="68"/>
+        <v>testes de hipóteses - Aula Gravada</v>
+      </c>
+      <c r="C172" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O172" t="s">
+        <v>46</v>
+      </c>
+      <c r="P172" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q172">
+        <f t="shared" ref="Q172:Q175" si="69">Q165+1</f>
+        <v>27</v>
+      </c>
+      <c r="S172" t="str">
+        <f t="shared" ref="S172:S175" si="70">O172&amp;P172&amp;Q172</f>
+        <v>=H27</v>
+      </c>
+      <c r="T172" t="s">
+        <v>173</v>
+      </c>
+      <c r="U172" t="str">
+        <f>H27</f>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B173" s="17">
+        <f t="shared" si="68"/>
+        <v>24</v>
+      </c>
+      <c r="C173" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O173" t="s">
+        <v>46</v>
+      </c>
+      <c r="P173" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q173">
+        <f t="shared" si="69"/>
+        <v>27</v>
+      </c>
+      <c r="S173" t="str">
+        <f t="shared" si="70"/>
+        <v>=I27</v>
+      </c>
+      <c r="T173" t="s">
+        <v>174</v>
+      </c>
+      <c r="U173" t="str">
+        <f>I27</f>
+        <v>testes de hipóteses - Aula Gravada</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B174" s="17">
+        <f t="shared" si="68"/>
+        <v>2</v>
+      </c>
+      <c r="C174" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O174" t="s">
+        <v>46</v>
+      </c>
+      <c r="P174" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q174">
+        <f t="shared" si="69"/>
+        <v>27</v>
+      </c>
+      <c r="S174" t="str">
+        <f t="shared" si="70"/>
+        <v>=J27</v>
+      </c>
+      <c r="T174" t="s">
+        <v>175</v>
+      </c>
+      <c r="U174">
+        <f>J27</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A175" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B175" s="28"/>
+      <c r="C175" s="28"/>
+      <c r="O175" t="s">
+        <v>46</v>
+      </c>
+      <c r="P175" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q175">
+        <f t="shared" si="69"/>
+        <v>27</v>
+      </c>
+      <c r="S175" t="str">
+        <f t="shared" si="70"/>
+        <v>=K27</v>
+      </c>
+      <c r="T175" t="s">
+        <v>176</v>
+      </c>
+      <c r="U175">
+        <f>K27</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A176" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B176" s="28"/>
+      <c r="C176" s="28"/>
+    </row>
+    <row r="177" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B177" s="16">
+        <f>U178</f>
+        <v>44768</v>
+      </c>
+      <c r="C177" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B178" s="16" t="str">
+        <f t="shared" ref="B178:B181" si="71">U179</f>
+        <v>Terça</v>
+      </c>
+      <c r="C178" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O178" t="s">
+        <v>46</v>
+      </c>
+      <c r="P178" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q178">
+        <f>Q171+1</f>
+        <v>28</v>
+      </c>
+      <c r="S178" t="str">
+        <f>O178&amp;P178&amp;Q178</f>
+        <v>=G28</v>
+      </c>
+      <c r="T178" t="s">
+        <v>177</v>
+      </c>
+      <c r="U178" s="25">
+        <f>G28</f>
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B179" s="16" t="str">
+        <f t="shared" si="71"/>
+        <v>Testes Z, F e t.</v>
+      </c>
+      <c r="C179" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O179" t="s">
+        <v>46</v>
+      </c>
+      <c r="P179" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q179">
+        <f t="shared" ref="Q179:Q182" si="72">Q172+1</f>
+        <v>28</v>
+      </c>
+      <c r="S179" t="str">
+        <f t="shared" ref="S179:S182" si="73">O179&amp;P179&amp;Q179</f>
+        <v>=H28</v>
+      </c>
+      <c r="T179" t="s">
+        <v>178</v>
+      </c>
+      <c r="U179" t="str">
+        <f>H28</f>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B180" s="17">
+        <f t="shared" si="71"/>
+        <v>25</v>
+      </c>
+      <c r="C180" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O180" t="s">
+        <v>46</v>
+      </c>
+      <c r="P180" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q180">
+        <f t="shared" si="72"/>
+        <v>28</v>
+      </c>
+      <c r="S180" t="str">
+        <f t="shared" si="73"/>
+        <v>=I28</v>
+      </c>
+      <c r="T180" t="s">
+        <v>179</v>
+      </c>
+      <c r="U180" t="str">
+        <f>I28</f>
+        <v>Testes Z, F e t.</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B181" s="17">
+        <f t="shared" si="71"/>
+        <v>2</v>
+      </c>
+      <c r="C181" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O181" t="s">
+        <v>46</v>
+      </c>
+      <c r="P181" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q181">
+        <f t="shared" si="72"/>
+        <v>28</v>
+      </c>
+      <c r="S181" t="str">
+        <f t="shared" si="73"/>
+        <v>=J28</v>
+      </c>
+      <c r="T181" t="s">
+        <v>180</v>
+      </c>
+      <c r="U181">
+        <f>J28</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A182" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B182" s="28"/>
+      <c r="C182" s="28"/>
+      <c r="O182" t="s">
+        <v>46</v>
+      </c>
+      <c r="P182" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q182">
+        <f t="shared" si="72"/>
+        <v>28</v>
+      </c>
+      <c r="S182" t="str">
+        <f t="shared" si="73"/>
+        <v>=K28</v>
+      </c>
+      <c r="T182" t="s">
+        <v>181</v>
+      </c>
+      <c r="U182">
+        <f>K28</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A183" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B183" s="28"/>
+      <c r="C183" s="28"/>
+    </row>
+    <row r="184" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B184" s="16">
+        <f>U185</f>
+        <v>44770</v>
+      </c>
+      <c r="C184" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B185" s="16" t="str">
+        <f t="shared" ref="B185:B188" si="74">U186</f>
+        <v>Quinta</v>
+      </c>
+      <c r="C185" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O185" t="s">
+        <v>46</v>
+      </c>
+      <c r="P185" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q185">
+        <f>Q178+1</f>
+        <v>29</v>
+      </c>
+      <c r="S185" t="str">
+        <f>O185&amp;P185&amp;Q185</f>
+        <v>=G29</v>
+      </c>
+      <c r="T185" t="s">
+        <v>182</v>
+      </c>
+      <c r="U185" s="25">
+        <f>G29</f>
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B186" s="16" t="str">
+        <f t="shared" si="74"/>
+        <v>Teste de qui-quadrado</v>
+      </c>
+      <c r="C186" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O186" t="s">
+        <v>46</v>
+      </c>
+      <c r="P186" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q186">
+        <f t="shared" ref="Q186:Q189" si="75">Q179+1</f>
+        <v>29</v>
+      </c>
+      <c r="S186" t="str">
+        <f t="shared" ref="S186:S189" si="76">O186&amp;P186&amp;Q186</f>
+        <v>=H29</v>
+      </c>
+      <c r="T186" t="s">
+        <v>183</v>
+      </c>
+      <c r="U186" t="str">
+        <f>H29</f>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B187" s="17">
+        <f t="shared" si="74"/>
+        <v>26</v>
+      </c>
+      <c r="C187" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O187" t="s">
+        <v>46</v>
+      </c>
+      <c r="P187" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q187">
+        <f t="shared" si="75"/>
+        <v>29</v>
+      </c>
+      <c r="S187" t="str">
+        <f t="shared" si="76"/>
+        <v>=I29</v>
+      </c>
+      <c r="T187" t="s">
+        <v>184</v>
+      </c>
+      <c r="U187" t="str">
+        <f>I29</f>
+        <v>Teste de qui-quadrado</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A188" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B188" s="17">
+        <f t="shared" si="74"/>
+        <v>2</v>
+      </c>
+      <c r="C188" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O188" t="s">
+        <v>46</v>
+      </c>
+      <c r="P188" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q188">
+        <f t="shared" si="75"/>
+        <v>29</v>
+      </c>
+      <c r="S188" t="str">
+        <f t="shared" si="76"/>
+        <v>=J29</v>
+      </c>
+      <c r="T188" t="s">
+        <v>185</v>
+      </c>
+      <c r="U188">
+        <f>J29</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A189" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B189" s="28"/>
+      <c r="C189" s="28"/>
+      <c r="O189" t="s">
+        <v>46</v>
+      </c>
+      <c r="P189" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q189">
+        <f t="shared" si="75"/>
+        <v>29</v>
+      </c>
+      <c r="S189" t="str">
+        <f t="shared" si="76"/>
+        <v>=K29</v>
+      </c>
+      <c r="T189" t="s">
+        <v>186</v>
+      </c>
+      <c r="U189">
+        <f>K29</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A190" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B190" s="28"/>
+      <c r="C190" s="28"/>
+    </row>
+    <row r="191" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B191" s="16">
+        <f>U192</f>
+        <v>44775</v>
+      </c>
+      <c r="C191" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B192" s="16" t="str">
+        <f t="shared" ref="B192:B195" si="77">U193</f>
+        <v>Terça</v>
+      </c>
+      <c r="C192" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O192" t="s">
+        <v>46</v>
+      </c>
+      <c r="P192" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q192">
+        <f>Q185+1</f>
+        <v>30</v>
+      </c>
+      <c r="S192" t="str">
+        <f>O192&amp;P192&amp;Q192</f>
+        <v>=G30</v>
+      </c>
+      <c r="T192" t="s">
+        <v>187</v>
+      </c>
+      <c r="U192" s="25">
+        <f>G30</f>
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B193" s="16" t="str">
+        <f t="shared" si="77"/>
+        <v>Aula de exercícios</v>
+      </c>
+      <c r="C193" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O193" t="s">
+        <v>46</v>
+      </c>
+      <c r="P193" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q193">
+        <f t="shared" ref="Q193:Q203" si="78">Q186+1</f>
+        <v>30</v>
+      </c>
+      <c r="S193" t="str">
+        <f t="shared" ref="S193:S196" si="79">O193&amp;P193&amp;Q193</f>
+        <v>=H30</v>
+      </c>
+      <c r="T193" t="s">
+        <v>188</v>
+      </c>
+      <c r="U193" t="str">
+        <f>H30</f>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B194" s="17">
+        <f t="shared" si="77"/>
+        <v>27</v>
+      </c>
+      <c r="C194" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O194" t="s">
+        <v>46</v>
+      </c>
+      <c r="P194" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q194">
+        <f t="shared" si="78"/>
+        <v>30</v>
+      </c>
+      <c r="S194" t="str">
+        <f t="shared" si="79"/>
+        <v>=I30</v>
+      </c>
+      <c r="T194" t="s">
+        <v>189</v>
+      </c>
+      <c r="U194" t="str">
+        <f>I30</f>
+        <v>Aula de exercícios</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B195" s="17">
+        <f t="shared" si="77"/>
+        <v>2</v>
+      </c>
+      <c r="C195" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O195" t="s">
+        <v>46</v>
+      </c>
+      <c r="P195" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q195">
+        <f t="shared" si="78"/>
+        <v>30</v>
+      </c>
+      <c r="S195" t="str">
+        <f t="shared" si="79"/>
+        <v>=J30</v>
+      </c>
+      <c r="T195" t="s">
+        <v>190</v>
+      </c>
+      <c r="U195">
+        <f>J30</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A196" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B196" s="28"/>
+      <c r="C196" s="28"/>
+      <c r="O196" t="s">
+        <v>46</v>
+      </c>
+      <c r="P196" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q196">
+        <f t="shared" si="78"/>
+        <v>30</v>
+      </c>
+      <c r="S196" t="str">
+        <f t="shared" si="79"/>
+        <v>=K30</v>
+      </c>
+      <c r="T196" t="s">
+        <v>191</v>
+      </c>
+      <c r="U196">
+        <f>K30</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A197" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B197" s="28"/>
+      <c r="C197" s="28"/>
+    </row>
+    <row r="198" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B198" s="16">
+        <f>U199</f>
+        <v>44777</v>
+      </c>
+      <c r="C198" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A199" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B199" s="16" t="str">
+        <f t="shared" ref="B199:B202" si="80">U200</f>
+        <v>Quinta</v>
+      </c>
+      <c r="C199" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O199" t="s">
+        <v>46</v>
+      </c>
+      <c r="P199" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q199">
+        <f>Q192+1</f>
+        <v>31</v>
+      </c>
+      <c r="S199" t="str">
+        <f>O199&amp;P199&amp;Q199</f>
+        <v>=G31</v>
+      </c>
+      <c r="T199" t="s">
+        <v>192</v>
+      </c>
+      <c r="U199" s="25">
+        <f>G31</f>
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A200" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B200" s="16" t="str">
+        <f t="shared" si="80"/>
+        <v>Entrega do Relatório Final (Trabalho)</v>
+      </c>
+      <c r="C200" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O200" t="s">
+        <v>46</v>
+      </c>
+      <c r="P200" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q200">
+        <f t="shared" si="78"/>
+        <v>31</v>
+      </c>
+      <c r="S200" t="str">
+        <f t="shared" ref="S200:S203" si="81">O200&amp;P200&amp;Q200</f>
+        <v>=H31</v>
+      </c>
+      <c r="T200" t="s">
+        <v>193</v>
+      </c>
+      <c r="U200" t="str">
+        <f>H31</f>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A201" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B201" s="17">
+        <f t="shared" si="80"/>
+        <v>28</v>
+      </c>
+      <c r="C201" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O201" t="s">
+        <v>46</v>
+      </c>
+      <c r="P201" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q201">
+        <f t="shared" si="78"/>
+        <v>31</v>
+      </c>
+      <c r="S201" t="str">
+        <f t="shared" si="81"/>
+        <v>=I31</v>
+      </c>
+      <c r="T201" t="s">
+        <v>194</v>
+      </c>
+      <c r="U201" t="str">
+        <f>I31</f>
+        <v>Entrega do Relatório Final (Trabalho)</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A202" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B202" s="17">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="C202" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O202" t="s">
+        <v>46</v>
+      </c>
+      <c r="P202" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q202">
+        <f t="shared" si="78"/>
+        <v>31</v>
+      </c>
+      <c r="S202" t="str">
+        <f t="shared" si="81"/>
+        <v>=J31</v>
+      </c>
+      <c r="T202" t="s">
+        <v>195</v>
+      </c>
+      <c r="U202">
+        <f>J31</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A203" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B203" s="28"/>
+      <c r="C203" s="28"/>
+      <c r="O203" t="s">
+        <v>46</v>
+      </c>
+      <c r="P203" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q203">
+        <f t="shared" si="78"/>
+        <v>31</v>
+      </c>
+      <c r="S203" t="str">
+        <f t="shared" si="81"/>
+        <v>=K31</v>
+      </c>
+      <c r="T203" t="s">
+        <v>196</v>
+      </c>
+      <c r="U203">
+        <f>K31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A204" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B204" s="28"/>
+      <c r="C204" s="28"/>
+    </row>
+    <row r="205" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A205" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B205" s="16">
+        <f>U206</f>
+        <v>44782</v>
+      </c>
+      <c r="C205" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A206" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B206" s="16" t="str">
+        <f t="shared" ref="B206:B209" si="82">U207</f>
+        <v>Terça</v>
+      </c>
+      <c r="C206" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O206" t="s">
+        <v>46</v>
+      </c>
+      <c r="P206" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q206">
+        <f>Q199+1</f>
+        <v>32</v>
+      </c>
+      <c r="S206" t="str">
+        <f>O206&amp;P206&amp;Q206</f>
+        <v>=G32</v>
+      </c>
+      <c r="T206" t="s">
+        <v>197</v>
+      </c>
+      <c r="U206" s="25">
+        <f>G32</f>
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A207" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B207" s="16" t="str">
+        <f t="shared" si="82"/>
+        <v>Exame Final/ Prova Substitutiva</v>
+      </c>
+      <c r="C207" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O207" t="s">
+        <v>46</v>
+      </c>
+      <c r="P207" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q207">
+        <f t="shared" ref="Q207:Q210" si="83">Q200+1</f>
+        <v>32</v>
+      </c>
+      <c r="S207" t="str">
+        <f t="shared" ref="S207:S210" si="84">O207&amp;P207&amp;Q207</f>
+        <v>=H32</v>
+      </c>
+      <c r="T207" t="s">
+        <v>198</v>
+      </c>
+      <c r="U207" t="str">
+        <f>H32</f>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B208" s="17">
+        <f t="shared" si="82"/>
+        <v>29</v>
+      </c>
+      <c r="C208" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O208" t="s">
+        <v>46</v>
+      </c>
+      <c r="P208" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q208">
+        <f t="shared" si="83"/>
+        <v>32</v>
+      </c>
+      <c r="S208" t="str">
+        <f t="shared" si="84"/>
+        <v>=I32</v>
+      </c>
+      <c r="T208" t="s">
+        <v>199</v>
+      </c>
+      <c r="U208" t="str">
+        <f>I32</f>
+        <v>Exame Final/ Prova Substitutiva</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B209" s="17">
+        <f t="shared" si="82"/>
+        <v>2</v>
+      </c>
+      <c r="C209" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O209" t="s">
+        <v>46</v>
+      </c>
+      <c r="P209" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q209">
+        <f t="shared" si="83"/>
+        <v>32</v>
+      </c>
+      <c r="S209" t="str">
+        <f t="shared" si="84"/>
+        <v>=J32</v>
+      </c>
+      <c r="T209" t="s">
+        <v>200</v>
+      </c>
+      <c r="U209">
+        <f>J32</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A210" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B210" s="28"/>
+      <c r="C210" s="28"/>
+      <c r="O210" t="s">
+        <v>46</v>
+      </c>
+      <c r="P210" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q210">
+        <f t="shared" si="83"/>
+        <v>32</v>
+      </c>
+      <c r="S210" t="str">
+        <f t="shared" si="84"/>
+        <v>=K32</v>
+      </c>
+      <c r="T210" t="s">
+        <v>201</v>
+      </c>
+      <c r="U210">
+        <f>K32</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A211" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B211" s="28"/>
+      <c r="C211" s="28"/>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A212" s="28"/>
+      <c r="B212" s="28"/>
+      <c r="C212" s="28"/>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U213" s="25"/>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U220" s="25"/>
+    </row>
+    <row r="227" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U227" s="25"/>
+    </row>
+    <row r="234" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U234" s="25"/>
+    </row>
+    <row r="241" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U241" s="25"/>
+    </row>
+    <row r="248" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U248" s="25"/>
+    </row>
+    <row r="255" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U255" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>